--- a/data_year/zb/工业/按行业分私营工业企业主要经济指标(2000-2002)/应交所得税.xlsx
+++ b/data_year/zb/工业/按行业分私营工业企业主要经济指标(2000-2002)/应交所得税.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,379 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1.59018</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1.68497</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.24123</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.00137</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.7349</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2.0734</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.07577</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.69295</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.35916</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1.48643</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.47121</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.36181</v>
-      </c>
-      <c r="N2" t="n">
-        <v>2.35337</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.97737</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.11543</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.94392</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.7134</v>
-      </c>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="n">
-        <v>0.42738</v>
-      </c>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="n">
-        <v>0.00412</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.16102</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.61013</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1.36502</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>2.84704</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0.48641</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0.45025</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0.06901</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>35.28186</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>2.90403</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0.00105</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0.65408</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>2.19245</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>2.52446</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0.20452</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>0.61649</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>1.43783</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>0.51201</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>1.72568</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0.21201</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>2.24621</v>
-      </c>
-      <c r="C3" t="n">
-        <v>3.18321</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.99554</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.00286</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1.16979</v>
-      </c>
-      <c r="G3" t="n">
-        <v>4.1142</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.83262</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1.64104</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.80009</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.42816</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.7894</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.02663</v>
-      </c>
-      <c r="N3" t="n">
-        <v>4.48473</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.14186</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.25242</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.64286</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.43488</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.0017</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.6309900000000001</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0.00489</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.02527</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0.28523</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.2362</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>2.0838</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>5.43407</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1.49637</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0.44418</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0.00196</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>62.38404</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>5.5275</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0.05544</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>1.34499</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>3.79747</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>4.24362</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0.25938</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>1.17235</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>2.57959</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>0.69668</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>2.51395</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0.36191</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>3.43992</v>
-      </c>
-      <c r="C4" t="n">
-        <v>4.97164</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.80254</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.00304</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2.00958</v>
-      </c>
-      <c r="G4" t="n">
-        <v>6.42225</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.4387</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2.04406</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.96347</v>
-      </c>
-      <c r="K4" t="n">
-        <v>4.12544</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.78178</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.2083</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7.5571</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.90259</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.31092</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>3.97334</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.62898</v>
-      </c>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="n">
-        <v>0.86538</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.00253</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.02477</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0.71507</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.38027</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>3.11657</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>7.61427</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>2.07432</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>1.49471</v>
-      </c>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="n">
-        <v>94.08305</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>8.660729999999999</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0.05192</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>2.03253</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>6.43402</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>6.30014</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>0.6993200000000001</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>1.75336</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>3.72832</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>0.96106</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>3.06723</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0.52288</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
